--- a/GATEWAY/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.p.a/PROFIM/6.05/report-checklist.xlsx
+++ b/GATEWAY/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.p.a/PROFIM/6.05/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgm01-my.sharepoint.com/personal/domenico_depinto_cgm_com/Documents/Desktop/validazione sogei/Accreditamenti e report/PROFIM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgm01-my.sharepoint.com/personal/domenico_depinto_cgm_com/Documents/validazione_sogei/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.p.a/PROFIM/6.05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="161" documentId="11_D02697B058064E8558B1D8CE05CFACF2181887E2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9517F104-A638-4913-83CA-CEB098DC904C}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="11_D02697B058064E8558B1D8CE05CFACF2181887E2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59287630-31C7-4709-94B5-E9DB68498E89}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="205">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1410,10 +1410,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3808,10 +3804,10 @@
   <dimension ref="A1:T651"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4445,7 +4441,9 @@
       <c r="N18" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="O18" s="29"/>
+      <c r="O18" s="29" t="s">
+        <v>158</v>
+      </c>
       <c r="P18" s="29" t="s">
         <v>181</v>
       </c>

--- a/GATEWAY/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.p.a/PROFIM/6.05/report-checklist.xlsx
+++ b/GATEWAY/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.p.a/PROFIM/6.05/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgm01-my.sharepoint.com/personal/domenico_depinto_cgm_com/Documents/validazione_sogei/A1#200000SWHCGMXX/COMPUGROUP_MEDICAL_ITALIA_S.p.a/PROFIM/6.05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="11_D02697B058064E8558B1D8CE05CFACF2181887E2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59287630-31C7-4709-94B5-E9DB68498E89}"/>
+  <xr:revisionPtr revIDLastSave="172" documentId="11_D02697B058064E8558B1D8CE05CFACF2181887E2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0349D9F-FA00-44BB-B945-ABD8142F499E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="192">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -810,12 +810,6 @@
     </t>
   </si>
   <si>
-    <t>il nostro gestionale non gestisce la sezione Piani di Cura</t>
-  </si>
-  <si>
-    <t>il nostro gestionale non gestisce le sezioni Piani di Cura e Reti di patologia</t>
-  </si>
-  <si>
     <t>compare messaggio al medico il quale può portarsi in cartella clinica e modificare il CF del paziente quindi riprovare la generazione e invio PSS</t>
   </si>
   <si>
@@ -840,42 +834,6 @@
     <t>2.16.840.1.113883.2.9.2.190201.4.4.535ff987b462aeb3238254a7cac123dd987f9cc5395c5413983861364e616541.945c453bbf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2023-10-26T03:58:33Z</t>
-  </si>
-  <si>
-    <t>26b7fc2718666fcf</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190201.4.4.838ce48ff3b4c962927765b1af0062fc40e6e3e16400071a6dc7cc0b771dfcdf.cf3b5c4a63^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-10-26T03:59:46Z</t>
-  </si>
-  <si>
-    <t>eb9faef25dfa7823</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190201.4.4.dd179d6c3f3ecce121e963af44e452a2fe35d65e542362db49f73f2dd85f9808.e3e64f53e9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-10-26T04:02:30Z</t>
-  </si>
-  <si>
-    <t>20867a650adcdf69</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190201.4.4.6c8f202b4aeb958317c2d7975c77494f33f3c2f522cee7f543584989a5f75947.61e13ec6d2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-10-26T04:03:07Z</t>
-  </si>
-  <si>
-    <t>09316fcf9db95898</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190201.4.4.49cfd1d110172ff21f1102592e11ce8a906e6bcdabe69b49fc7b8807a12ca9b4.e952d62d7d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2023-10-26T04:04:00Z</t>
   </si>
   <si>
@@ -886,6 +844,9 @@
   </si>
   <si>
     <t>403 Campo token JWT non valido.Il codice fiscale nel campo person_id non è corretto</t>
+  </si>
+  <si>
+    <t>il nostro gestionale non gestisce le sezioni Piani di Cura, Reti di patologia e annotazioni</t>
   </si>
 </sst>
 </file>
@@ -1410,6 +1371,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3804,10 +3769,10 @@
   <dimension ref="A1:T651"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="J10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="O19" sqref="O19"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3920,7 +3885,7 @@
       <c r="A5" s="43"/>
       <c r="B5" s="44"/>
       <c r="C5" s="45" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D5" s="37"/>
       <c r="F5" s="12"/>
@@ -4165,11 +4130,11 @@
         <v>59</v>
       </c>
       <c r="N12" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O12" s="29"/>
       <c r="P12" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q12" s="29"/>
       <c r="R12" s="30" t="s">
@@ -4196,22 +4161,16 @@
       <c r="E13" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="27">
-        <v>45225</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="I13" s="28" t="s">
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="K13" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="J13" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="K13" s="29"/>
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
@@ -4240,22 +4199,16 @@
       <c r="E14" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="27">
-        <v>45225</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>194</v>
-      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
       <c r="J14" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="K14" s="29"/>
+        <v>158</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>191</v>
+      </c>
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
       <c r="N14" s="29"/>
@@ -4263,9 +4216,7 @@
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
       <c r="R14" s="30"/>
-      <c r="S14" s="29" t="s">
-        <v>179</v>
-      </c>
+      <c r="S14" s="29"/>
       <c r="T14" s="32" t="s">
         <v>45</v>
       </c>
@@ -4286,22 +4237,16 @@
       <c r="E15" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="27">
-        <v>45225</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>197</v>
-      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
       <c r="J15" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="K15" s="29"/>
+        <v>158</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>191</v>
+      </c>
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
       <c r="N15" s="29"/>
@@ -4309,9 +4254,7 @@
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
       <c r="R15" s="30"/>
-      <c r="S15" s="29" t="s">
-        <v>179</v>
-      </c>
+      <c r="S15" s="29"/>
       <c r="T15" s="32" t="s">
         <v>45</v>
       </c>
@@ -4332,22 +4275,16 @@
       <c r="E16" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="27">
-        <v>45225</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>200</v>
-      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
       <c r="J16" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16" s="29"/>
+        <v>158</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>191</v>
+      </c>
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
       <c r="N16" s="29"/>
@@ -4355,9 +4292,7 @@
       <c r="P16" s="29"/>
       <c r="Q16" s="29"/>
       <c r="R16" s="30"/>
-      <c r="S16" s="29" t="s">
-        <v>180</v>
-      </c>
+      <c r="S16" s="29"/>
       <c r="T16" s="32" t="s">
         <v>45</v>
       </c>
@@ -4420,13 +4355,13 @@
         <v>45225</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="J18" s="29" t="s">
         <v>59</v>
@@ -4439,13 +4374,13 @@
         <v>59</v>
       </c>
       <c r="N18" s="29" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="O18" s="29" t="s">
         <v>158</v>
       </c>
       <c r="P18" s="29" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q18" s="29"/>
       <c r="R18" s="30"/>
@@ -4820,7 +4755,7 @@
         <v>158</v>
       </c>
       <c r="K28" s="29" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L28" s="29"/>
       <c r="M28" s="29"/>
@@ -5044,13 +4979,13 @@
         <v>45225</v>
       </c>
       <c r="G34" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="I34" s="28" t="s">
         <v>186</v>
-      </c>
-      <c r="H34" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="I34" s="28" t="s">
-        <v>188</v>
       </c>
       <c r="J34" s="29" t="s">
         <v>59</v>
